--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-836295.133009991</v>
+        <v>-838975.9960733994</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>358.7569928907241</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>311.5285153375551</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>116.936316518507</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>18.45649924005022</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.5201068274574</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>59.06512559636381</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>328.4042773533076</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>294.1184396031198</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>84.18870769958895</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>166.9834522257312</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>317.0264083984261</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>27.93741639686092</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>31.93001024321607</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1348,16 +1348,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>89.5066264520265</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>58.21786903648933</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784709</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>220.9731342426603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459375</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>62.64725059288526</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>173.7494376284381</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>98.03921036659287</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>140.5758943588674</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>141.5888089825039</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>139.1630968205461</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974333</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>365.9220545857355</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2444.221836967321</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2444.221836967321</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2444.221836967321</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2113.15894962375</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>2094.516021098447</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>1721.050262837367</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.910930861555</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118699</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897738</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>834.8075278248622</v>
+        <v>623.0447030767627</v>
       </c>
       <c r="C4" t="n">
-        <v>665.8713448969553</v>
+        <v>454.1085201488559</v>
       </c>
       <c r="D4" t="n">
-        <v>665.8713448969553</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>517.9582513145622</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>371.0683038166518</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>203.0818391249304</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1576.784377047867</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1576.784377047867</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1576.784377047867</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1576.784377047867</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>1322.09988884198</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.445543553119</v>
+        <v>1032.68271880502</v>
       </c>
       <c r="X4" t="n">
-        <v>1016.455992655102</v>
+        <v>804.6931679070025</v>
       </c>
       <c r="Y4" t="n">
-        <v>1016.455992655102</v>
+        <v>804.6931679070025</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.556048344953</v>
+        <v>1505.18439714251</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.593531404541</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D5" t="n">
-        <v>860.3278327977905</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="E5" t="n">
-        <v>860.3278327977905</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F5" t="n">
-        <v>449.3419280081829</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.695380320764</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.556048344953</v>
+        <v>1891.784237206631</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4626,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.036292340028</v>
+        <v>538.7930236439502</v>
       </c>
       <c r="C7" t="n">
-        <v>514.036292340028</v>
+        <v>538.7930236439502</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>538.7930236439502</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>390.879930061557</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>390.879930061557</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1467.775966311133</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1467.775966311133</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>1213.091478105246</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W7" t="n">
-        <v>923.6743080682851</v>
+        <v>766.7825745419675</v>
       </c>
       <c r="X7" t="n">
-        <v>695.6847571702677</v>
+        <v>538.7930236439502</v>
       </c>
       <c r="Y7" t="n">
-        <v>695.6847571702677</v>
+        <v>538.7930236439502</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>906.1570541554036</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="C8" t="n">
-        <v>906.1570541554036</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="D8" t="n">
-        <v>906.1570541554036</v>
+        <v>1091.23937619809</v>
       </c>
       <c r="E8" t="n">
-        <v>906.1570541554036</v>
+        <v>1091.23937619809</v>
       </c>
       <c r="F8" t="n">
-        <v>495.171149365796</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>79.46639909008485</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>79.46639909008485</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y8" t="n">
-        <v>906.1570541554036</v>
+        <v>1836.104914868962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694942</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.2888279392362</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2888279392362</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288653</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827663</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W10" t="n">
-        <v>767.0814070827663</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X10" t="n">
-        <v>767.0814070827663</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="Y10" t="n">
-        <v>546.2888279392362</v>
+        <v>506.7368627605709</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>120.680066384834</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>696.708435085168</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>696.708435085168</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>548.7953415027749</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>401.9053940048645</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>234.7092947197445</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,58 +5504,58 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.2677182139842</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C19" t="n">
-        <v>530.3315352860773</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797778</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2383.683032476336</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S19" t="n">
-        <v>2200.82819813124</v>
+        <v>2271.458601127297</v>
       </c>
       <c r="T19" t="n">
-        <v>1981.226733154182</v>
+        <v>2051.857136150238</v>
       </c>
       <c r="U19" t="n">
-        <v>1692.151506498379</v>
+        <v>1762.781909494436</v>
       </c>
       <c r="V19" t="n">
-        <v>1437.467018292492</v>
+        <v>1508.097421288549</v>
       </c>
       <c r="W19" t="n">
-        <v>1148.049848255532</v>
+        <v>1218.680251251588</v>
       </c>
       <c r="X19" t="n">
-        <v>920.0602973575143</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.2677182139842</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>701.4712640439268</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>532.5350811160199</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>2165.078743814364</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1876.003517158562</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1621.319028952675</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1331.901858915714</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>1103.912308017697</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>883.1197288741665</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421608</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>199.7675539570408</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6443,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319312</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656806</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150011</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942642</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580102</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345464</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438401</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.094482495414</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380719</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311314</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.38532953243</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838284</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518749</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582388</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400514</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,19 +7643,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.160150103916</v>
+        <v>294.8344935184725</v>
       </c>
       <c r="P3" t="n">
-        <v>14.25823202432832</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.5240487471575</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
-        <v>319.4183821282434</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95.34753040415639</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>330.7844694773628</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.07684380973453</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016387</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>5.199738306157315</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.72799611723643</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.276848373206491</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>145.6085800303768</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>35.40333084624568</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>43.72409101823416</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>147.021377568698</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2.151612349409311e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>-6.699085858273953e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1010628.998427693</v>
+        <v>1010628.998427692</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1196640.674192882</v>
+        <v>1196640.674192883</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1196640.674192882</v>
+        <v>1196640.674192883</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1196640.674192882</v>
+        <v>1196640.674192883</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1196640.674192882</v>
+        <v>1196640.674192883</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1196640.674192883</v>
+        <v>1196640.674192882</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186177.354983754</v>
+        <v>186177.3549837539</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147517</v>
@@ -26335,13 +26335,13 @@
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
         <v>225786.486712678</v>
@@ -26350,10 +26350,10 @@
         <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="P2" t="n">
         <v>225786.486712678</v>
-      </c>
-      <c r="P2" t="n">
-        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49700.31489448737</v>
+        <v>49700.31489448718</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707362</v>
+        <v>6897.424496707279</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707371</v>
+        <v>6897.424496707373</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707383</v>
+        <v>6897.424496707414</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980088</v>
       </c>
       <c r="M4" t="n">
         <v>14888.28375980084</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.2837598009</v>
+        <v>14888.28375980085</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980086</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980082</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
@@ -26476,16 +26476,16 @@
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1071212.515926498</v>
+        <v>-1071572.598942215</v>
       </c>
       <c r="C6" t="n">
         <v>938.9874412082572</v>
       </c>
       <c r="D6" t="n">
-        <v>938.9874412082427</v>
+        <v>938.9874412083009</v>
       </c>
       <c r="E6" t="n">
-        <v>-393540.0810304084</v>
+        <v>-393574.8189558449</v>
       </c>
       <c r="F6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687016</v>
       </c>
       <c r="G6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687016</v>
       </c>
       <c r="H6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687015</v>
       </c>
       <c r="I6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687022</v>
       </c>
       <c r="J6" t="n">
-        <v>-53659.81721584536</v>
+        <v>-53694.55514128097</v>
       </c>
       <c r="K6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687015</v>
       </c>
       <c r="L6" t="n">
-        <v>88306.36910533003</v>
+        <v>88306.36910533004</v>
       </c>
       <c r="M6" t="n">
-        <v>-24873.20662996487</v>
+        <v>-24873.20662996509</v>
       </c>
       <c r="N6" t="n">
         <v>107734.0870989618</v>
       </c>
       <c r="O6" t="n">
+        <v>107734.0870989619</v>
+      </c>
+      <c r="P6" t="n">
         <v>107734.0870989617</v>
-      </c>
-      <c r="P6" t="n">
-        <v>107734.0870989619</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996103</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>23.17337718153772</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.515898880287395</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>101.7314023276714</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>42.4924468232098</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27594,7 +27594,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>83.14342541964641</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>92.1194990529338</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>82.11789234521524</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>53.76524377148075</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>89.84963734328534</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>37.77249627560951</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>116.6854627749963</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>129.0780269000683</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.073772610967144e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.844450849205411e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.3275373121692</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34790,16 +34790,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000391</v>
+        <v>630.2591755145955</v>
       </c>
       <c r="P3" t="n">
-        <v>263.9377611478607</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35024,19 +35024,19 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>590.9487307432805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>617.0987427660937</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288359</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191346</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
